--- a/excel/05.xlsx
+++ b/excel/05.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yabuki\Dropbox\it-chiba\データ解析入門\analysis\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C34FBA-EF45-48A0-8612-500B32267A38}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12A701C-A137-435B-9402-2FEECF3BED93}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="3480" windowWidth="18200" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4940" yWindow="4940" windowWidth="20610" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,40 +53,40 @@
   </si>
   <si>
     <t>第5回</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>名前</t>
     <rPh sb="0" eb="2">
       <t>ナマエ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>B</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>C</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>英語</t>
     <rPh sb="0" eb="2">
       <t>エイゴ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>数学</t>
     <rPh sb="0" eb="2">
       <t>スウガク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>1. 平均の求め方</t>
@@ -99,15 +99,15 @@
     <rPh sb="8" eb="9">
       <t>カタ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>2. 教科書の第5章</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>3. 報告</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>方法を二つ紹介します．</t>
@@ -120,7 +120,7 @@
     <rPh sb="5" eb="7">
       <t>ショウカイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>(a) 関数averageを使う．</t>
@@ -130,11 +130,11 @@
     <rPh sb="14" eb="15">
       <t>ツカ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>←=average(a14:a17)</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>(b) 合計をデータ数で割る．（これは理解のためのもので，実用的ではない．）</t>
@@ -153,33 +153,33 @@
     <rPh sb="29" eb="32">
       <t>ジツヨウテキ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>←=sum(a21:a24)</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>←=count(a21:a24)</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>←=a25/226</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>合計</t>
     <rPh sb="0" eb="2">
       <t>ゴウケイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>データ数</t>
     <rPh sb="3" eb="4">
       <t>スウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>割り算</t>
@@ -189,7 +189,7 @@
     <rPh sb="2" eb="3">
       <t>ザン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>a, bどちらの方法も，データを変えると結果が変わることが重要．これが「表計算」ということ．</t>
@@ -211,14 +211,14 @@
     <rPh sb="36" eb="39">
       <t>ヒョウケイサン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>データを変えてみる．</t>
     <rPh sb="4" eb="5">
       <t>カ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>次のデータを，英語の点数の高い順（英語が同点なら数学の点数の高い順）に並べ替える．</t>
@@ -261,7 +261,7 @@
     <rPh sb="37" eb="38">
       <t>カ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>解説動画→</t>
@@ -271,7 +271,7 @@
     <rPh sb="2" eb="4">
       <t>ドウガ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>次のデータから，英語が80点以上，数学が60点未満の人だけを抽出する．</t>
@@ -302,7 +302,7 @@
     <rPh sb="30" eb="32">
       <t>チュウシュツ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>上で抽出した人の，英語の平均点と数学の平均点を求める．</t>
@@ -330,7 +330,7 @@
     <rPh sb="23" eb="24">
       <t>モト</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>2020年および2070年の人口の上位10か国を求めて比較してください．</t>
@@ -355,7 +355,7 @@
     <rPh sb="27" eb="29">
       <t>ヒカク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>第4回のワークシートのSheet2に「国別人口データ」があるはず．</t>
@@ -371,32 +371,32 @@
     <rPh sb="21" eb="23">
       <t>ジンコウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>そのデータを，このファイルのSheet2にコピーする．</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>順位</t>
     <rPh sb="0" eb="2">
       <t>ジュンイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>2020年</t>
     <rPh sb="4" eb="5">
       <t>ネン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>2070年</t>
     <rPh sb="4" eb="5">
       <t>ネン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>人口増加率の上位10か国を求めてください．</t>
@@ -415,7 +415,7 @@
     <rPh sb="13" eb="14">
       <t>モト</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>人口増加率が1%以上の国の国名と人口増加率を抽出してください．</t>
@@ -440,18 +440,18 @@
     <rPh sb="22" eb="24">
       <t>チュウシュツ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ヒント：↑ここまで</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>国名</t>
     <rPh sb="0" eb="2">
       <t>コクメイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>人口増加率</t>
@@ -461,7 +461,7 @@
     <rPh sb="2" eb="5">
       <t>ゾウカリツ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>アジアおよびアフリカの国で，人口増加率が0.5%以上で1人あたりGDPが2,500ドル未満の国の国名，地域，人口増加率，1人あたりGDPを抽出してください．</t>
@@ -504,18 +504,14 @@
     <rPh sb="69" eb="71">
       <t>チュウシュツ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>地域</t>
     <rPh sb="0" eb="2">
       <t>チイキ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>一人当GDP</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>←1人あたりのGDPが5,000ドル未満の国の人口増加率の平均を求めてください．</t>
@@ -537,7 +533,7 @@
     <rPh sb="32" eb="33">
       <t>モト</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>←1人あたりのGDPが5,000ドル以上の国の人口増加率の平均を求めてください．</t>
@@ -559,7 +555,7 @@
     <rPh sb="32" eb="33">
       <t>モト</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>←アジアまたはアフリカで，2020年人口が3,000万人以上，人口増加率が0.5%以上の国の1人あたりGDPの平均を求めてください．</t>
@@ -596,11 +592,11 @@
     <rPh sb="58" eb="59">
       <t>モト</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>D</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>動画の中で「並び替え」と言っているのは「並べ替え」の間違いです．</t>
@@ -628,7 +624,7 @@
     <rPh sb="26" eb="28">
       <t>マチガ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>←英語の平均点（数値ではなく式を入力すること）</t>
@@ -647,7 +643,7 @@
     <rPh sb="16" eb="18">
       <t>ニュウリョク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>←数学の平均点（数値ではなく式を入力すること）</t>
@@ -657,29 +653,25 @@
     <rPh sb="4" eb="7">
       <t>ヘイキンテン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>https://youtu.be/R8S7WfN8SdA</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>https://youtu.be/VLAREVy7tCU</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一人当GDP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Yu Gothic"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -710,13 +702,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="6"/>
-      <name val="Yu Gothic"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -733,7 +718,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -741,41 +726,19 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="38" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="ハイパーリンク" xfId="2" builtinId="8"/>
-    <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1212,13 +1175,13 @@
       <c r="A37" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>53</v>
+      <c r="C37" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1274,8 +1237,8 @@
       <c r="A47" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>52</v>
+      <c r="C47" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1324,7 +1287,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B53">
         <v>85</v>
@@ -1340,12 +1303,12 @@
     </row>
     <row r="60" spans="1:3">
       <c r="B60" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="B61" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1517,8 +1480,8 @@
       <c r="C126" t="s">
         <v>41</v>
       </c>
-      <c r="D126" s="3" t="s">
-        <v>44</v>
+      <c r="D126" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1528,12 +1491,12 @@
     </row>
     <row r="148" spans="1:2">
       <c r="B148" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="B149" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -1541,14 +1504,14 @@
     </row>
     <row r="151" spans="1:2">
       <c r="B151" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A50:C52">
     <sortCondition descending="1" ref="B49"/>
   </sortState>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="C47" r:id="rId1" xr:uid="{DC92AA45-0C48-4C6C-975F-66C0A1ECC2D3}"/>
     <hyperlink ref="C37" r:id="rId2" xr:uid="{1323EC4E-28D1-4BFE-A6B7-EED611F0BC69}"/>
